--- a/raw-data/INEGI perception of insecurity.xlsx
+++ b/raw-data/INEGI perception of insecurity.xlsx
@@ -1,30 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/DATA/FinalProject-Draft/raw-data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB5DAAD-7075-9645-9BE0-8D912FABF120}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="380" yWindow="440" windowWidth="26440" windowHeight="16720" xr2:uid="{844AF0BB-0027-7742-A66A-56721B7D0479}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miGjM4q9UCC9m2YJ5fPdWlxAnCdNw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -32,6 +17,15 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="36">
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
   <si>
     <t>Estados Unidos Mexicanos</t>
   </si>
@@ -131,40 +125,31 @@
   <si>
     <t>Zacatecas</t>
   </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="14.0"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="14.0"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,57 +157,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -246,113 +223,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,38 +376,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F1D91F-3B5C-A343-AE26-BDB0B5DD6652}">
-  <dimension ref="A1:J298"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="35.44"/>
+    <col customWidth="1" min="2" max="26" width="10.56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -534,15 +411,15 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>69.5</v>
       </c>
       <c r="C2" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -551,15 +428,15 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>60.8</v>
       </c>
       <c r="C3" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -568,15 +445,15 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>58.2</v>
       </c>
       <c r="C4" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -585,15 +462,15 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>37.1</v>
       </c>
       <c r="C5" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -602,15 +479,15 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>51.2</v>
       </c>
       <c r="C6" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -619,15 +496,15 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>64.599999999999994</v>
+        <v>64.6</v>
       </c>
       <c r="C7" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -636,15 +513,15 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>65.8</v>
       </c>
       <c r="C8" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -653,15 +530,15 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>38.299999999999997</v>
+        <v>38.3</v>
       </c>
       <c r="C9" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -670,15 +547,15 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>89.5</v>
       </c>
       <c r="C10" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -687,15 +564,15 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>75.3</v>
       </c>
       <c r="C11" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -704,15 +581,15 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>88.1</v>
       </c>
       <c r="C12" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -721,15 +598,15 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="C13" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -738,15 +615,15 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>72.5</v>
       </c>
       <c r="C14" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -755,15 +632,15 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>55.3</v>
       </c>
       <c r="C15" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -772,15 +649,15 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
         <v>71.2</v>
       </c>
       <c r="C16" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -789,15 +666,15 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>83.9</v>
       </c>
       <c r="C17" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -806,15 +683,15 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>76.099999999999994</v>
+        <v>76.1</v>
       </c>
       <c r="C18" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -823,15 +700,15 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>80.8</v>
       </c>
       <c r="C19" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -840,15 +717,15 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>79.3</v>
       </c>
       <c r="C20" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -857,15 +734,15 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>84.6</v>
       </c>
       <c r="C21" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -874,15 +751,15 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>73.3</v>
       </c>
       <c r="C22" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -891,15 +768,15 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="C23" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -908,15 +785,15 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
         <v>30.2</v>
       </c>
       <c r="C24" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -925,15 +802,15 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <v>63.9</v>
       </c>
       <c r="C25" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -942,15 +819,15 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>76.3</v>
       </c>
       <c r="C26" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -959,15 +836,15 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
         <v>80.8</v>
       </c>
       <c r="C27" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -976,15 +853,15 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="C28" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -993,15 +870,15 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2">
         <v>77.7</v>
       </c>
       <c r="C29" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1010,15 +887,15 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>83.4</v>
       </c>
       <c r="C30" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1027,15 +904,15 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2">
         <v>41.6</v>
       </c>
       <c r="C31" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1044,15 +921,15 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
         <v>64.8</v>
       </c>
       <c r="C32" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1061,15 +938,15 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2">
         <v>26.6</v>
       </c>
       <c r="C33" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1078,15 +955,15 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2">
         <v>83.1</v>
       </c>
       <c r="C34" s="2">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1095,2911 +972,3616 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B35" s="2">
-        <v>66.599999999999994</v>
+        <v>66.6</v>
       </c>
       <c r="C35" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36" s="2">
         <v>46.5</v>
       </c>
       <c r="C36" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B37" s="2">
         <v>51.6</v>
       </c>
       <c r="C37" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B38" s="2">
         <v>24.4</v>
       </c>
       <c r="C38" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B39" s="2">
         <v>44.6</v>
       </c>
       <c r="C39" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B40" s="2">
-        <v>74.599999999999994</v>
+        <v>74.6</v>
       </c>
       <c r="C40" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2">
         <v>70.8</v>
       </c>
       <c r="C41" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B42" s="2">
         <v>37.9</v>
       </c>
       <c r="C42" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B43" s="2">
         <v>82.7</v>
       </c>
       <c r="C43" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B44" s="2">
         <v>70.8</v>
       </c>
       <c r="C44" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B45" s="2">
         <v>81.8</v>
       </c>
       <c r="C45" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B46" s="2">
         <v>54.1</v>
       </c>
       <c r="C46" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B47" s="2">
-        <v>74.400000000000006</v>
+        <v>74.4</v>
       </c>
       <c r="C47" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B48" s="2">
         <v>49.2</v>
       </c>
       <c r="C48" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B49" s="2">
         <v>61.5</v>
       </c>
       <c r="C49" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B50" s="2">
         <v>84.5</v>
       </c>
       <c r="C50" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B51" s="2">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="C51" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B52" s="2">
         <v>81.2</v>
       </c>
       <c r="C52" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B53" s="2">
-        <v>72.900000000000006</v>
+        <v>72.9</v>
       </c>
       <c r="C53" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B54" s="2">
         <v>86.7</v>
       </c>
       <c r="C54" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B55" s="2">
         <v>60.7</v>
       </c>
       <c r="C55" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B56" s="2">
         <v>57.1</v>
       </c>
       <c r="C56" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B57" s="2">
         <v>29.4</v>
       </c>
       <c r="C57" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B58" s="2">
         <v>59.9</v>
       </c>
       <c r="C58" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B59" s="2">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="C59" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B60" s="2">
-        <v>77.400000000000006</v>
+        <v>77.4</v>
       </c>
       <c r="C60" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B61" s="2">
         <v>42.4</v>
       </c>
       <c r="C61" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B62" s="2">
         <v>71.2</v>
       </c>
       <c r="C62" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B63" s="2">
         <v>82.9</v>
       </c>
       <c r="C63" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B64" s="2">
         <v>40.1</v>
       </c>
       <c r="C64" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B65" s="2">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="C65" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B66" s="2">
         <v>19.2</v>
       </c>
       <c r="C66" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B67" s="2">
         <v>80.5</v>
       </c>
       <c r="C67" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B68" s="2">
         <v>72.3</v>
       </c>
       <c r="C68" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B69" s="2">
         <v>51.8</v>
       </c>
       <c r="C69" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B70" s="2">
         <v>51.5</v>
       </c>
       <c r="C70" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B71" s="2">
         <v>30.1</v>
       </c>
       <c r="C71" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B72" s="2">
         <v>56.7</v>
       </c>
       <c r="C72" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B73" s="2">
-        <v>82</v>
+        <v>82.0</v>
       </c>
       <c r="C73" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B74" s="2">
-        <v>71.099999999999994</v>
+        <v>71.1</v>
       </c>
       <c r="C74" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B75" s="2">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="C75" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B76" s="2">
-        <v>78</v>
+        <v>78.0</v>
       </c>
       <c r="C76" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B77" s="2">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="C77" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B78" s="2">
         <v>77.8</v>
       </c>
       <c r="C78" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B79" s="2">
         <v>58.8</v>
       </c>
       <c r="C79" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B80" s="2">
         <v>86.9</v>
       </c>
       <c r="C80" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B81" s="2">
         <v>56.3</v>
       </c>
       <c r="C81" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B82" s="2">
-        <v>75.900000000000006</v>
+        <v>75.9</v>
       </c>
       <c r="C82" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B83" s="2">
         <v>90.7</v>
       </c>
       <c r="C83" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B84" s="2">
         <v>80.3</v>
       </c>
       <c r="C84" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B85" s="2">
         <v>86.5</v>
       </c>
       <c r="C85" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B86" s="2">
         <v>56.6</v>
       </c>
       <c r="C86" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B87" s="2">
         <v>80.2</v>
       </c>
       <c r="C87" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B88" s="2">
-        <v>66.900000000000006</v>
+        <v>66.9</v>
       </c>
       <c r="C88" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B89" s="2">
         <v>63.3</v>
       </c>
       <c r="C89" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B90" s="2">
         <v>41.1</v>
       </c>
       <c r="C90" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B91" s="2">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="C91" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B92" s="2">
         <v>77.8</v>
       </c>
       <c r="C92" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B93" s="2">
         <v>77.7</v>
       </c>
       <c r="C93" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B94" s="2">
         <v>52.5</v>
       </c>
       <c r="C94" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B95" s="2">
         <v>83.4</v>
       </c>
       <c r="C95" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B96" s="2">
         <v>84.1</v>
       </c>
       <c r="C96" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B97" s="2">
         <v>52.1</v>
       </c>
       <c r="C97" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B98" s="2">
-        <v>75.400000000000006</v>
+        <v>75.4</v>
       </c>
       <c r="C98" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B99" s="2">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="C99" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B100" s="2">
         <v>84.7</v>
       </c>
       <c r="C100" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2013.0</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B101" s="2">
         <v>73.3</v>
       </c>
       <c r="C101" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B102" s="2">
         <v>49.1</v>
       </c>
       <c r="C102" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B103" s="2">
         <v>53.7</v>
       </c>
       <c r="C103" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B104" s="2">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="C104" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B105" s="2">
         <v>58.9</v>
       </c>
       <c r="C105" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B106" s="2">
         <v>78.5</v>
       </c>
       <c r="C106" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B107" s="2">
         <v>56.9</v>
       </c>
       <c r="C107" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B108" s="2">
         <v>62.1</v>
       </c>
       <c r="C108" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B109" s="2">
         <v>75.2</v>
       </c>
       <c r="C109" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B110" s="2">
-        <v>77.599999999999994</v>
+        <v>77.6</v>
       </c>
       <c r="C110" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B111" s="2">
         <v>73.5</v>
       </c>
       <c r="C111" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B112" s="2">
         <v>64.8</v>
       </c>
       <c r="C112" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B113" s="2">
-        <v>78.900000000000006</v>
+        <v>78.9</v>
       </c>
       <c r="C113" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B114" s="2">
         <v>65.5</v>
       </c>
       <c r="C114" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B115" s="2">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="C115" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B116" s="2">
         <v>92.6</v>
       </c>
       <c r="C116" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B117" s="2">
-        <v>82</v>
+        <v>82.0</v>
       </c>
       <c r="C117" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B118" s="2">
-        <v>89</v>
+        <v>89.0</v>
       </c>
       <c r="C118" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B119" s="2">
         <v>51.1</v>
       </c>
       <c r="C119" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B120" s="2">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="C120" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B121" s="2">
-        <v>77.099999999999994</v>
+        <v>77.1</v>
       </c>
       <c r="C121" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B122" s="2">
         <v>63.6</v>
       </c>
       <c r="C122" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B123" s="2">
         <v>38.5</v>
       </c>
       <c r="C123" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B124" s="2">
-        <v>67</v>
+        <v>67.0</v>
       </c>
       <c r="C124" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B125" s="2">
-        <v>73.099999999999994</v>
+        <v>73.1</v>
       </c>
       <c r="C125" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B126" s="2">
-        <v>72.099999999999994</v>
+        <v>72.1</v>
       </c>
       <c r="C126" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B127" s="2">
         <v>57.2</v>
       </c>
       <c r="C127" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B128" s="2">
         <v>86.1</v>
       </c>
       <c r="C128" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B129" s="2">
         <v>83.9</v>
       </c>
       <c r="C129" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B130" s="2">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="C130" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B131" s="2">
         <v>80.7</v>
       </c>
       <c r="C131" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B132" s="2">
         <v>29.5</v>
       </c>
       <c r="C132" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B133" s="2">
         <v>80.3</v>
       </c>
       <c r="C133" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2014.0</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B134" s="2">
         <v>73.2</v>
       </c>
       <c r="C134" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B135" s="2">
         <v>43.2</v>
       </c>
       <c r="C135" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B136" s="2">
         <v>53.2</v>
       </c>
       <c r="C136" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B137" s="2">
         <v>61.8</v>
       </c>
       <c r="C137" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B138" s="2">
         <v>53.7</v>
       </c>
       <c r="C138" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B139" s="2">
-        <v>74.900000000000006</v>
+        <v>74.9</v>
       </c>
       <c r="C139" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B140" s="2">
         <v>56.5</v>
       </c>
       <c r="C140" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B141" s="2">
         <v>54.6</v>
       </c>
       <c r="C141" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B142" s="2">
-        <v>73.599999999999994</v>
+        <v>73.6</v>
       </c>
       <c r="C142" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B143" s="2">
         <v>78.5</v>
       </c>
       <c r="C143" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B144" s="2">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="C144" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B145" s="2">
         <v>64.8</v>
       </c>
       <c r="C145" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B146" s="2">
         <v>86.8</v>
       </c>
       <c r="C146" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B147" s="2">
         <v>62.1</v>
       </c>
       <c r="C147" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B148" s="2">
-        <v>69.599999999999994</v>
+        <v>69.6</v>
       </c>
       <c r="C148" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B149" s="2">
         <v>90.6</v>
       </c>
       <c r="C149" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B150" s="2">
         <v>79.8</v>
       </c>
       <c r="C150" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B151" s="2">
         <v>86.3</v>
       </c>
       <c r="C151" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B152" s="2">
         <v>55.5</v>
       </c>
       <c r="C152" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B153" s="2">
         <v>70.7</v>
       </c>
       <c r="C153" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B154" s="2">
         <v>77.7</v>
       </c>
       <c r="C154" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B155" s="2">
-        <v>67.400000000000006</v>
+        <v>67.4</v>
       </c>
       <c r="C155" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B156" s="2">
         <v>50.7</v>
       </c>
       <c r="C156" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B157" s="2">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="C157" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B158" s="2">
         <v>69.2</v>
       </c>
       <c r="C158" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B159" s="2">
         <v>70.5</v>
       </c>
       <c r="C159" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B160" s="2">
         <v>62.5</v>
       </c>
       <c r="C160" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B161" s="2">
         <v>88.9</v>
       </c>
       <c r="C161" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B162" s="2">
         <v>86.9</v>
       </c>
       <c r="C162" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B163" s="2">
         <v>59.2</v>
       </c>
       <c r="C163" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B164" s="2">
         <v>80.5</v>
       </c>
       <c r="C164" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B165" s="2">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="C165" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B166" s="2">
-        <v>80.900000000000006</v>
+        <v>80.9</v>
       </c>
       <c r="C166" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B167" s="2">
-        <v>72.400000000000006</v>
+        <v>72.4</v>
       </c>
       <c r="C167" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B168" s="2">
         <v>42.5</v>
       </c>
       <c r="C168" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B169" s="2">
         <v>56.8</v>
       </c>
       <c r="C169" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B170" s="2">
         <v>44.2</v>
       </c>
       <c r="C170" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B171" s="2">
         <v>54.4</v>
       </c>
       <c r="C171" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B172" s="2">
         <v>55.9</v>
       </c>
       <c r="C172" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B173" s="2">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="C173" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B174" s="2">
         <v>57.2</v>
       </c>
       <c r="C174" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B175" s="2">
         <v>63.1</v>
       </c>
       <c r="C175" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B176" s="2">
         <v>84.6</v>
       </c>
       <c r="C176" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B177" s="2">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="C177" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B178" s="2">
         <v>59.6</v>
       </c>
       <c r="C178" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B179" s="2">
         <v>84.7</v>
       </c>
       <c r="C179" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B180" s="2">
         <v>56.6</v>
       </c>
       <c r="C180" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B181" s="2">
-        <v>69.099999999999994</v>
+        <v>69.1</v>
       </c>
       <c r="C181" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B182" s="2">
         <v>90.6</v>
       </c>
       <c r="C182" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B183" s="2">
         <v>71.7</v>
       </c>
       <c r="C183" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B184" s="2">
         <v>84.3</v>
       </c>
       <c r="C184" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B185" s="2">
         <v>48.5</v>
       </c>
       <c r="C185" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B186" s="2">
         <v>73.5</v>
       </c>
       <c r="C186" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B187" s="2">
         <v>75.3</v>
       </c>
       <c r="C187" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B188" s="2">
-        <v>68.400000000000006</v>
+        <v>68.4</v>
       </c>
       <c r="C188" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B189" s="2">
         <v>62.1</v>
       </c>
       <c r="C189" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B190" s="2">
         <v>58.8</v>
       </c>
       <c r="C190" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B191" s="2">
-        <v>72.099999999999994</v>
+        <v>72.1</v>
       </c>
       <c r="C191" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B192" s="2">
         <v>72.2</v>
       </c>
       <c r="C192" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B193" s="2">
         <v>51.3</v>
       </c>
       <c r="C193" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B194" s="2">
         <v>87.9</v>
       </c>
       <c r="C194" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B195" s="2">
         <v>86.2</v>
       </c>
       <c r="C195" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B196" s="2">
         <v>55.1</v>
       </c>
       <c r="C196" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B197" s="2">
         <v>85.1</v>
       </c>
       <c r="C197" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B198" s="2">
         <v>31.5</v>
       </c>
       <c r="C198" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B199" s="2">
         <v>82.5</v>
       </c>
       <c r="C199" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B200" s="2">
         <v>74.3</v>
       </c>
       <c r="C200" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B201" s="2">
         <v>43.7</v>
       </c>
       <c r="C201" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B202" s="2">
-        <v>58</v>
+        <v>58.0</v>
       </c>
       <c r="C202" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B203" s="2">
         <v>60.9</v>
       </c>
       <c r="C203" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B204" s="2">
         <v>57.6</v>
       </c>
       <c r="C204" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B205" s="2">
         <v>56.4</v>
       </c>
       <c r="C205" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B206" s="2">
         <v>74.5</v>
       </c>
       <c r="C206" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B207" s="2">
         <v>61.1</v>
       </c>
       <c r="C207" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B208" s="2">
         <v>74.2</v>
       </c>
       <c r="C208" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B209" s="2">
         <v>85.7</v>
       </c>
       <c r="C209" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B210" s="2">
         <v>57.4</v>
       </c>
       <c r="C210" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B211" s="2">
         <v>75.2</v>
       </c>
       <c r="C211" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B212" s="2">
         <v>83.1</v>
       </c>
       <c r="C212" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B213" s="2">
         <v>55.1</v>
       </c>
       <c r="C213" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B214" s="2">
         <v>65.7</v>
       </c>
       <c r="C214" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B215" s="2">
         <v>90.7</v>
       </c>
       <c r="C215" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B216" s="2">
-        <v>77.599999999999994</v>
+        <v>77.6</v>
       </c>
       <c r="C216" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B217" s="2">
         <v>86.3</v>
       </c>
       <c r="C217" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B218" s="2">
         <v>58.6</v>
       </c>
       <c r="C218" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B219" s="2">
-        <v>71.099999999999994</v>
+        <v>71.1</v>
       </c>
       <c r="C219" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B220" s="2">
-        <v>74.099999999999994</v>
+        <v>74.1</v>
       </c>
       <c r="C220" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B221" s="2">
-        <v>68.099999999999994</v>
+        <v>68.1</v>
       </c>
       <c r="C221" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B222" s="2">
         <v>54.4</v>
       </c>
       <c r="C222" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B223" s="2">
         <v>68.5</v>
       </c>
       <c r="C223" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B224" s="2">
         <v>73.7</v>
       </c>
       <c r="C224" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B225" s="2">
         <v>74.5</v>
       </c>
       <c r="C225" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B226" s="2">
         <v>57.4</v>
       </c>
       <c r="C226" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B227" s="2">
         <v>88.8</v>
       </c>
       <c r="C227" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B228" s="2">
         <v>85.2</v>
       </c>
       <c r="C228" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B229" s="2">
         <v>59.1</v>
       </c>
       <c r="C229" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B230" s="2">
         <v>89.9</v>
       </c>
       <c r="C230" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B231" s="2">
         <v>27.2</v>
       </c>
       <c r="C231" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B232" s="2">
         <v>84.4</v>
       </c>
       <c r="C232" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B233" s="2">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="C233">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>79.4</v>
+      </c>
+      <c r="C233" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B234" s="2">
         <v>60.9</v>
       </c>
-      <c r="C234">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C234" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B235" s="2">
         <v>72.7</v>
       </c>
-      <c r="C235">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C235" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B236" s="2">
         <v>65.3</v>
       </c>
-      <c r="C236">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C236" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B237" s="2">
         <v>57.8</v>
       </c>
-      <c r="C237">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C237" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B238" s="2">
-        <v>64</v>
-      </c>
-      <c r="C238">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>64.0</v>
+      </c>
+      <c r="C238" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B239" s="2">
         <v>80.5</v>
       </c>
-      <c r="C239">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C239" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B240" s="2">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="C240">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>71.4</v>
+      </c>
+      <c r="C240" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B241" s="2">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="C241">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>80.9</v>
+      </c>
+      <c r="C241" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B242" s="2">
         <v>88.3</v>
       </c>
-      <c r="C242">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C242" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B243" s="2">
         <v>60.4</v>
       </c>
-      <c r="C243">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C243" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B244" s="2">
-        <v>83</v>
-      </c>
-      <c r="C244">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>83.0</v>
+      </c>
+      <c r="C244" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B245" s="2">
         <v>84.2</v>
       </c>
-      <c r="C245">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C245" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B246" s="2">
         <v>63.3</v>
       </c>
-      <c r="C246">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C246" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B247" s="2">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="C247">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>73.6</v>
+      </c>
+      <c r="C247" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B248" s="2">
         <v>91.8</v>
       </c>
-      <c r="C248">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C248" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B249" s="2">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="C249">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>81.9</v>
+      </c>
+      <c r="C249" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B250" s="2">
         <v>86.4</v>
       </c>
-      <c r="C250">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C250" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B251" s="2">
         <v>83.5</v>
       </c>
-      <c r="C251">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C251" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B252" s="2">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="C252">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>75.1</v>
+      </c>
+      <c r="C252" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B253" s="2">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="C253">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>76.6</v>
+      </c>
+      <c r="C253" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B254" s="2">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="C254">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>81.4</v>
+      </c>
+      <c r="C254" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B255" s="2">
-        <v>62</v>
-      </c>
-      <c r="C255">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>62.0</v>
+      </c>
+      <c r="C255" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B256" s="2">
         <v>73.3</v>
       </c>
-      <c r="C256">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C256" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B257" s="2">
         <v>81.3</v>
       </c>
-      <c r="C257">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C257" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B258" s="2">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="C258">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>72.6</v>
+      </c>
+      <c r="C258" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B259" s="2">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="C259">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>66.9</v>
+      </c>
+      <c r="C259" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B260" s="2">
         <v>91.9</v>
       </c>
-      <c r="C260">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C260" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B261" s="2">
         <v>86.4</v>
       </c>
-      <c r="C261">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C261" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B262" s="2">
         <v>68.8</v>
       </c>
-      <c r="C262">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C262" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B263" s="2">
         <v>88.8</v>
       </c>
-      <c r="C263">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C263" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B264" s="2">
         <v>32.5</v>
       </c>
-      <c r="C264">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C264" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B265" s="2">
         <v>89.5</v>
       </c>
-      <c r="C265">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C265" s="3">
+        <v>2018.0</v>
+      </c>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B266" s="2">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="C266">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>78.9</v>
+      </c>
+      <c r="C266" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B267" s="2">
         <v>56.4</v>
       </c>
-      <c r="C267">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C267" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B268" s="2">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="C268">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>66.4</v>
+      </c>
+      <c r="C268" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B269" s="2">
         <v>48.2</v>
       </c>
-      <c r="C269">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C269" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B270" s="2">
-        <v>61</v>
-      </c>
-      <c r="C270">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>61.0</v>
+      </c>
+      <c r="C270" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B271" s="2">
         <v>57.1</v>
       </c>
-      <c r="C271">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C271" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B272" s="2">
         <v>77.8</v>
       </c>
-      <c r="C272">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C272" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B273" s="2">
         <v>68.8</v>
       </c>
-      <c r="C273">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C273" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B274" s="2">
         <v>80.8</v>
       </c>
-      <c r="C274">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C274" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B275" s="2">
         <v>89.2</v>
       </c>
-      <c r="C275">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C275" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B276" s="2">
         <v>64.7</v>
       </c>
-      <c r="C276">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C276" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B277" s="2">
         <v>88.8</v>
       </c>
-      <c r="C277">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C277" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B278" s="2">
         <v>84.7</v>
       </c>
-      <c r="C278">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C278" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B279" s="2">
         <v>65.5</v>
       </c>
-      <c r="C279">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C279" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B280" s="2">
         <v>77.7</v>
       </c>
-      <c r="C280">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C280" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B281" s="2">
         <v>88.8</v>
       </c>
-      <c r="C281">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C281" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B282" s="2">
         <v>80.2</v>
       </c>
-      <c r="C282">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C282" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B283" s="2">
         <v>88.5</v>
       </c>
-      <c r="C283">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C283" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B284" s="2">
         <v>60.5</v>
       </c>
-      <c r="C284">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C284" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B285" s="2">
         <v>81.7</v>
       </c>
-      <c r="C285">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C285" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B286" s="2">
         <v>71.2</v>
       </c>
-      <c r="C286">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C286" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B287" s="2">
         <v>87.7</v>
       </c>
-      <c r="C287">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C287" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B288" s="2">
-        <v>62</v>
-      </c>
-      <c r="C288">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>62.0</v>
+      </c>
+      <c r="C288" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B289" s="2">
         <v>82.1</v>
       </c>
-      <c r="C289">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C289" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B290" s="2">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="C290">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>77.6</v>
+      </c>
+      <c r="C290" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B291" s="2">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="C291">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>64.6</v>
+      </c>
+      <c r="C291" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B292" s="2">
         <v>68.3</v>
       </c>
-      <c r="C292">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C292" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B293" s="2">
         <v>90.2</v>
       </c>
-      <c r="C293">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C293" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B294" s="2">
         <v>83.1</v>
       </c>
-      <c r="C294">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C294" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B295" s="2">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="C295">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+        <v>69.4</v>
+      </c>
+      <c r="C295" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B296" s="2">
         <v>87.6</v>
       </c>
-      <c r="C296">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C296" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B297" s="2">
         <v>37.5</v>
       </c>
-      <c r="C297">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C297" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B298" s="2">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="C298">
-        <v>2019</v>
-      </c>
-    </row>
+        <v>80.6</v>
+      </c>
+      <c r="C298" s="3">
+        <v>2019.0</v>
+      </c>
+    </row>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>